--- a/src/data/7_comp_test.xlsx
+++ b/src/data/7_comp_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\sns_modeling\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A567F-B9DD-4500-B733-37FB0A9DBE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617405E4-5C68-4BF8-A654-FE12200F8603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="1800" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Cost cooling [$/kJ]</t>
+  </si>
+  <si>
+    <t>Cost heating [$/kJ]</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,9 +506,11 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -512,16 +520,30 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>85</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1500/1000000</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>5000/1000000</f>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5B4ED9-9AA6-42DD-91B2-CD44C4CD8B29}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/src/data/7_comp_test.xlsx
+++ b/src/data/7_comp_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\sns_modeling\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Braskem Project\test problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617405E4-5C68-4BF8-A654-FE12200F8603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD284F5-814B-4132-8C7E-BC14C993727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="1800" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="2">
         <v>20</v>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="2">
         <v>13</v>
@@ -685,7 +685,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
